--- a/Aufgaben/Aufgaben/pn_export3.xlsx
+++ b/Aufgaben/Aufgaben/pn_export3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumente\KI-Games-Ue\Aufgaben\Aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9D4D81E6-6A7A-4857-82E5-96BFF5D1C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F5AAF-0588-4F33-8F25-7B1B31DBE6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pn_export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -504,8 +515,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3201,11 +3213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CV34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -3848,6 +3860,9 @@
         <v>0.32696599999999998</v>
       </c>
     </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
